--- a/data/pca/factorExposure/factorExposure_2011-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.01606553549573715</v>
+        <v>-0.01541008974829347</v>
       </c>
       <c r="C2">
-        <v>0.005935156108011878</v>
+        <v>0.000613153234927808</v>
       </c>
       <c r="D2">
-        <v>0.05314429014016538</v>
+        <v>-0.005549842385993671</v>
       </c>
       <c r="E2">
-        <v>-0.02493637661546037</v>
+        <v>-0.04081458150796601</v>
       </c>
       <c r="F2">
-        <v>0.03761499797287645</v>
+        <v>-0.0007317620610517023</v>
       </c>
       <c r="G2">
-        <v>0.01172999113861383</v>
+        <v>-0.02944785522426747</v>
       </c>
       <c r="H2">
-        <v>0.01856575809849476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02374664571749295</v>
+      </c>
+      <c r="I2">
+        <v>-0.005773130050748061</v>
+      </c>
+      <c r="J2">
+        <v>0.05235882692872641</v>
+      </c>
+      <c r="K2">
+        <v>0.03611049516799281</v>
+      </c>
+      <c r="L2">
+        <v>-0.01117896800226276</v>
+      </c>
+      <c r="M2">
+        <v>0.005579346335012949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07944691663337615</v>
+        <v>-0.1097807571888507</v>
       </c>
       <c r="C4">
-        <v>-0.05603624223845709</v>
+        <v>0.0786014104818239</v>
       </c>
       <c r="D4">
-        <v>0.0315611539330796</v>
+        <v>-0.01864052604425647</v>
       </c>
       <c r="E4">
-        <v>-0.0488968003381074</v>
+        <v>-0.0533402549173844</v>
       </c>
       <c r="F4">
-        <v>0.01935448891776281</v>
+        <v>0.1360030693006874</v>
       </c>
       <c r="G4">
-        <v>0.01400293482448181</v>
+        <v>0.007658893159802636</v>
       </c>
       <c r="H4">
-        <v>0.01161149897875685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01425942992421984</v>
+      </c>
+      <c r="I4">
+        <v>-0.06342153427767193</v>
+      </c>
+      <c r="J4">
+        <v>-0.04207613916140359</v>
+      </c>
+      <c r="K4">
+        <v>-0.04279240817095854</v>
+      </c>
+      <c r="L4">
+        <v>0.0561746866955099</v>
+      </c>
+      <c r="M4">
+        <v>0.04786072841420551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1290509710092697</v>
+        <v>-0.1300109242942167</v>
       </c>
       <c r="C6">
-        <v>-0.03223047017308723</v>
+        <v>0.05401149167001248</v>
       </c>
       <c r="D6">
-        <v>0.04438494435318099</v>
+        <v>-0.002548808074533409</v>
       </c>
       <c r="E6">
-        <v>-0.06771574198646206</v>
+        <v>-0.001509976639728229</v>
       </c>
       <c r="F6">
-        <v>-0.1069522943269777</v>
+        <v>0.008944354569741412</v>
       </c>
       <c r="G6">
-        <v>0.01217271149603022</v>
+        <v>0.146034934628023</v>
       </c>
       <c r="H6">
-        <v>-0.2467247015035054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1496537969978137</v>
+      </c>
+      <c r="I6">
+        <v>-0.3404541842381294</v>
+      </c>
+      <c r="J6">
+        <v>-0.244429940559489</v>
+      </c>
+      <c r="K6">
+        <v>0.0954115151927591</v>
+      </c>
+      <c r="L6">
+        <v>-0.08093362165314982</v>
+      </c>
+      <c r="M6">
+        <v>0.004578343772398925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07143670554697577</v>
+        <v>-0.07537879531089864</v>
       </c>
       <c r="C7">
-        <v>-0.05689080524866571</v>
+        <v>0.07021164524167831</v>
       </c>
       <c r="D7">
-        <v>0.05628784816136619</v>
+        <v>-0.009019325134259513</v>
       </c>
       <c r="E7">
-        <v>-0.03932263633288637</v>
+        <v>-0.05376668176311084</v>
       </c>
       <c r="F7">
-        <v>-0.0348684030124092</v>
+        <v>0.02520698095148635</v>
       </c>
       <c r="G7">
-        <v>-0.00590478110445109</v>
+        <v>-0.003103050563060809</v>
       </c>
       <c r="H7">
-        <v>0.02209479644573178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.009117010411102591</v>
+      </c>
+      <c r="I7">
+        <v>0.03075561263705577</v>
+      </c>
+      <c r="J7">
+        <v>-0.01185635193231351</v>
+      </c>
+      <c r="K7">
+        <v>-0.04660290871540212</v>
+      </c>
+      <c r="L7">
+        <v>0.09997715689070508</v>
+      </c>
+      <c r="M7">
+        <v>-0.02058677648706756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03079796751657263</v>
+        <v>-0.03949163699788697</v>
       </c>
       <c r="C8">
-        <v>-0.01655949648691016</v>
+        <v>0.009506130011692739</v>
       </c>
       <c r="D8">
-        <v>0.05014254682655176</v>
+        <v>-0.01276717280299401</v>
       </c>
       <c r="E8">
-        <v>-0.05337416465574331</v>
+        <v>-0.05006593480826912</v>
       </c>
       <c r="F8">
-        <v>0.01348026678371668</v>
+        <v>0.1016577392534457</v>
       </c>
       <c r="G8">
-        <v>0.05721348895093509</v>
+        <v>0.001159257999058784</v>
       </c>
       <c r="H8">
-        <v>0.02675221806656023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.001329043737745559</v>
+      </c>
+      <c r="I8">
+        <v>-0.07387915858047008</v>
+      </c>
+      <c r="J8">
+        <v>-0.01189502571729036</v>
+      </c>
+      <c r="K8">
+        <v>-0.01531537155826591</v>
+      </c>
+      <c r="L8">
+        <v>0.06646906999761107</v>
+      </c>
+      <c r="M8">
+        <v>0.0413176191163106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07607600526554142</v>
+        <v>-0.0849768710932728</v>
       </c>
       <c r="C9">
-        <v>-0.06644049831849021</v>
+        <v>0.07321148326206675</v>
       </c>
       <c r="D9">
-        <v>0.03725061642371889</v>
+        <v>0.001021040901869147</v>
       </c>
       <c r="E9">
-        <v>-0.041593790619633</v>
+        <v>-0.03532603696875913</v>
       </c>
       <c r="F9">
-        <v>0.03050974327420964</v>
+        <v>0.1303355565634557</v>
       </c>
       <c r="G9">
-        <v>0.01503035371122655</v>
+        <v>0.01390678541745534</v>
       </c>
       <c r="H9">
-        <v>0.00212151303314228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.006960392371684597</v>
+      </c>
+      <c r="I9">
+        <v>-0.0248219831601949</v>
+      </c>
+      <c r="J9">
+        <v>-0.02602275117518411</v>
+      </c>
+      <c r="K9">
+        <v>-0.006265645254849208</v>
+      </c>
+      <c r="L9">
+        <v>0.04839009887978637</v>
+      </c>
+      <c r="M9">
+        <v>-0.007718170992901231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05870082895404874</v>
+        <v>-0.1132113917897106</v>
       </c>
       <c r="C10">
-        <v>0.137744918406003</v>
+        <v>-0.1660010473129003</v>
       </c>
       <c r="D10">
-        <v>0.06574966680223274</v>
+        <v>-0.002950364346637399</v>
       </c>
       <c r="E10">
-        <v>-0.03372892260758752</v>
+        <v>-0.05182636240165442</v>
       </c>
       <c r="F10">
-        <v>-0.04101894702385752</v>
+        <v>-0.01221374065547977</v>
       </c>
       <c r="G10">
-        <v>-0.001434055744991352</v>
+        <v>0.01368255540764686</v>
       </c>
       <c r="H10">
-        <v>-0.01498729018736783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.005103203416641494</v>
+      </c>
+      <c r="I10">
+        <v>0.05768011740445091</v>
+      </c>
+      <c r="J10">
+        <v>-0.006416650492261235</v>
+      </c>
+      <c r="K10">
+        <v>-0.001139796588669194</v>
+      </c>
+      <c r="L10">
+        <v>0.0002538923506900229</v>
+      </c>
+      <c r="M10">
+        <v>-0.1183339794581599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07184518021946483</v>
+        <v>-0.07002899562513273</v>
       </c>
       <c r="C11">
-        <v>-0.08512213665298664</v>
+        <v>0.07287120271515786</v>
       </c>
       <c r="D11">
-        <v>0.03215133847397696</v>
+        <v>0.02905876637763282</v>
       </c>
       <c r="E11">
-        <v>-0.008242368762326049</v>
+        <v>-0.01542621524183679</v>
       </c>
       <c r="F11">
-        <v>0.04925748301326546</v>
+        <v>0.1215368569583211</v>
       </c>
       <c r="G11">
-        <v>0.06938702656886232</v>
+        <v>0.008258934106252846</v>
       </c>
       <c r="H11">
-        <v>0.04862041820263446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.01101819029750025</v>
+      </c>
+      <c r="I11">
+        <v>0.07395561864842481</v>
+      </c>
+      <c r="J11">
+        <v>0.05082152776103981</v>
+      </c>
+      <c r="K11">
+        <v>0.04607682234729981</v>
+      </c>
+      <c r="L11">
+        <v>0.03330745669572897</v>
+      </c>
+      <c r="M11">
+        <v>-0.1175740140875456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.07025450759360635</v>
+        <v>-0.072469731791015</v>
       </c>
       <c r="C12">
-        <v>-0.06043746072761494</v>
+        <v>0.06585758631684996</v>
       </c>
       <c r="D12">
-        <v>0.01976715355332628</v>
+        <v>0.02803955522432253</v>
       </c>
       <c r="E12">
-        <v>-0.032487913403772</v>
+        <v>-0.004950405418931043</v>
       </c>
       <c r="F12">
-        <v>0.0004852435251206138</v>
+        <v>0.1283364884539587</v>
       </c>
       <c r="G12">
-        <v>0.04486328751902417</v>
+        <v>0.00264854701668859</v>
       </c>
       <c r="H12">
-        <v>0.04073616281962959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.03103826822176883</v>
+      </c>
+      <c r="I12">
+        <v>0.04925999442105285</v>
+      </c>
+      <c r="J12">
+        <v>0.05467297637414801</v>
+      </c>
+      <c r="K12">
+        <v>0.03939965616920896</v>
+      </c>
+      <c r="L12">
+        <v>0.06241355117403961</v>
+      </c>
+      <c r="M12">
+        <v>-0.1388433614170866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05636439048942199</v>
+        <v>-0.04377459590125111</v>
       </c>
       <c r="C13">
-        <v>-0.01301225778360725</v>
+        <v>0.03196503046164906</v>
       </c>
       <c r="D13">
-        <v>-0.002344325419993997</v>
+        <v>-0.02291268314076029</v>
       </c>
       <c r="E13">
-        <v>-0.01738224108245735</v>
+        <v>-0.01099449757255252</v>
       </c>
       <c r="F13">
-        <v>0.05458645257655361</v>
+        <v>0.03812968378248936</v>
       </c>
       <c r="G13">
-        <v>-0.01268324279060983</v>
+        <v>-0.00937779259072343</v>
       </c>
       <c r="H13">
-        <v>-0.007282481056279805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01005180675349586</v>
+      </c>
+      <c r="I13">
+        <v>-0.01164969742276341</v>
+      </c>
+      <c r="J13">
+        <v>-0.01236827830134173</v>
+      </c>
+      <c r="K13">
+        <v>-0.04520964464862089</v>
+      </c>
+      <c r="L13">
+        <v>0.03266768887853984</v>
+      </c>
+      <c r="M13">
+        <v>0.03322624076958734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04837573721345271</v>
+        <v>-0.0421795926778127</v>
       </c>
       <c r="C14">
-        <v>-0.02486267111528358</v>
+        <v>0.02986792162493363</v>
       </c>
       <c r="D14">
-        <v>0.02208046493328114</v>
+        <v>0.01456600337587677</v>
       </c>
       <c r="E14">
-        <v>-0.01183771864763565</v>
+        <v>-0.01698104105138889</v>
       </c>
       <c r="F14">
-        <v>-0.01886954622326278</v>
+        <v>0.06493381439757834</v>
       </c>
       <c r="G14">
-        <v>0.01305460797536286</v>
+        <v>-0.02535714284737934</v>
       </c>
       <c r="H14">
-        <v>-0.06900956048142995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03547734837568435</v>
+      </c>
+      <c r="I14">
+        <v>-0.03641304726213157</v>
+      </c>
+      <c r="J14">
+        <v>-0.0701604985305293</v>
+      </c>
+      <c r="K14">
+        <v>-0.02777866114508924</v>
+      </c>
+      <c r="L14">
+        <v>0.04281548783956121</v>
+      </c>
+      <c r="M14">
+        <v>0.02623004395600348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.04031549351481897</v>
+        <v>-0.02903502564304558</v>
       </c>
       <c r="C15">
-        <v>0.006392593961638228</v>
+        <v>0.007242746895803365</v>
       </c>
       <c r="D15">
-        <v>-0.004060469993890908</v>
+        <v>-0.05555021017691992</v>
       </c>
       <c r="E15">
-        <v>-0.02761910109241358</v>
+        <v>-0.003603833791461858</v>
       </c>
       <c r="F15">
-        <v>0.007928718511511184</v>
+        <v>0.005622508530852423</v>
       </c>
       <c r="G15">
-        <v>-0.01233298189730237</v>
+        <v>0.0266942542323693</v>
       </c>
       <c r="H15">
-        <v>-0.00943293408702877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03908972530793445</v>
+      </c>
+      <c r="I15">
+        <v>-0.0438128885461113</v>
+      </c>
+      <c r="J15">
+        <v>-0.04563869744989221</v>
+      </c>
+      <c r="K15">
+        <v>-0.04428354425760651</v>
+      </c>
+      <c r="L15">
+        <v>0.02031498246121443</v>
+      </c>
+      <c r="M15">
+        <v>-0.01031806235553864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.06148781764849875</v>
+        <v>-0.07437207859648559</v>
       </c>
       <c r="C16">
-        <v>-0.08290317994824141</v>
+        <v>0.07974354731823471</v>
       </c>
       <c r="D16">
-        <v>0.02646035135049096</v>
+        <v>0.01826459837936733</v>
       </c>
       <c r="E16">
-        <v>-0.03325138613479484</v>
+        <v>-0.01391522639675295</v>
       </c>
       <c r="F16">
-        <v>0.04326974006870492</v>
+        <v>0.1200641831404016</v>
       </c>
       <c r="G16">
-        <v>0.04607218714910923</v>
+        <v>-0.007285200098308822</v>
       </c>
       <c r="H16">
-        <v>0.04154230181698883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.01804719722881553</v>
+      </c>
+      <c r="I16">
+        <v>0.05868855488611913</v>
+      </c>
+      <c r="J16">
+        <v>0.0475433177251535</v>
+      </c>
+      <c r="K16">
+        <v>0.04200608342735725</v>
+      </c>
+      <c r="L16">
+        <v>0.06841244000714247</v>
+      </c>
+      <c r="M16">
+        <v>-0.1156342373115119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04196958074497611</v>
+        <v>-0.0458272113296063</v>
       </c>
       <c r="C20">
-        <v>-0.04330135985658799</v>
+        <v>0.03099971897743063</v>
       </c>
       <c r="D20">
-        <v>0.008408500350536568</v>
+        <v>-0.02519157145762446</v>
       </c>
       <c r="E20">
-        <v>-0.01814034496523096</v>
+        <v>-0.02077694142240958</v>
       </c>
       <c r="F20">
-        <v>0.02263169705029594</v>
+        <v>0.06633767589253987</v>
       </c>
       <c r="G20">
-        <v>0.01733058050198419</v>
+        <v>-0.01406033961422093</v>
       </c>
       <c r="H20">
-        <v>0.003734623203000852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01322270897514706</v>
+      </c>
+      <c r="I20">
+        <v>-0.008412505414239361</v>
+      </c>
+      <c r="J20">
+        <v>-0.03680364988974918</v>
+      </c>
+      <c r="K20">
+        <v>-0.0112520462780591</v>
+      </c>
+      <c r="L20">
+        <v>0.07797317244348871</v>
+      </c>
+      <c r="M20">
+        <v>-0.0123878480337729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02437876952602981</v>
+        <v>-0.03077300569760928</v>
       </c>
       <c r="C21">
-        <v>-0.03244620401233621</v>
+        <v>0.02574114303755681</v>
       </c>
       <c r="D21">
-        <v>0.0009115558330364585</v>
+        <v>-0.008054520268888612</v>
       </c>
       <c r="E21">
-        <v>-0.06073333989890481</v>
+        <v>-0.01887326514687139</v>
       </c>
       <c r="F21">
-        <v>-0.06720425176499499</v>
+        <v>0.06437477526172322</v>
       </c>
       <c r="G21">
-        <v>-0.002167343961963514</v>
+        <v>0.09771064898109248</v>
       </c>
       <c r="H21">
-        <v>-0.00154817331509224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02119793144704787</v>
+      </c>
+      <c r="I21">
+        <v>0.04379320039949418</v>
+      </c>
+      <c r="J21">
+        <v>-0.06221794697887156</v>
+      </c>
+      <c r="K21">
+        <v>-0.06170684236371682</v>
+      </c>
+      <c r="L21">
+        <v>0.05430903341664939</v>
+      </c>
+      <c r="M21">
+        <v>0.00284343758689255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01439553605982923</v>
+        <v>-0.0428721837722674</v>
       </c>
       <c r="C22">
-        <v>-0.04445208006984074</v>
+        <v>0.01459206039200467</v>
       </c>
       <c r="D22">
-        <v>-0.1160665527668698</v>
+        <v>-0.6568964457118219</v>
       </c>
       <c r="E22">
-        <v>-0.4986610650694703</v>
+        <v>-0.04777446853819568</v>
       </c>
       <c r="F22">
-        <v>0.1201737858121869</v>
+        <v>-0.07055260573892869</v>
       </c>
       <c r="G22">
-        <v>-0.2898463371148385</v>
+        <v>-0.07084808320645151</v>
       </c>
       <c r="H22">
-        <v>0.177928247903677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09634503695077647</v>
+      </c>
+      <c r="I22">
+        <v>0.09918751693518184</v>
+      </c>
+      <c r="J22">
+        <v>-0.0326543483409693</v>
+      </c>
+      <c r="K22">
+        <v>0.0300158961571316</v>
+      </c>
+      <c r="L22">
+        <v>-0.01920026595435343</v>
+      </c>
+      <c r="M22">
+        <v>-0.001513461373594295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.0131021151979544</v>
+        <v>-0.04310858710297719</v>
       </c>
       <c r="C23">
-        <v>-0.04282709875732555</v>
+        <v>0.01478272998450098</v>
       </c>
       <c r="D23">
-        <v>-0.1157523585483301</v>
+        <v>-0.6583921418161465</v>
       </c>
       <c r="E23">
-        <v>-0.4974276817152021</v>
+        <v>-0.04832852851042553</v>
       </c>
       <c r="F23">
-        <v>0.119446191191272</v>
+        <v>-0.06759357195216242</v>
       </c>
       <c r="G23">
-        <v>-0.2901157930070156</v>
+        <v>-0.07187058031793168</v>
       </c>
       <c r="H23">
-        <v>0.1753855522691977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09698317769894209</v>
+      </c>
+      <c r="I23">
+        <v>0.09595402752216621</v>
+      </c>
+      <c r="J23">
+        <v>-0.03272667886005193</v>
+      </c>
+      <c r="K23">
+        <v>0.03258975856152915</v>
+      </c>
+      <c r="L23">
+        <v>-0.02067361228262088</v>
+      </c>
+      <c r="M23">
+        <v>-0.0002563739554640538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07668874961957979</v>
+        <v>-0.07870059701593062</v>
       </c>
       <c r="C24">
-        <v>-0.07401846194180142</v>
+        <v>0.07711285942817041</v>
       </c>
       <c r="D24">
-        <v>0.03161384519374779</v>
+        <v>0.01418501080570923</v>
       </c>
       <c r="E24">
-        <v>-0.03665092358323681</v>
+        <v>-0.01796502168954516</v>
       </c>
       <c r="F24">
-        <v>0.03017553881989571</v>
+        <v>0.1196914441212443</v>
       </c>
       <c r="G24">
-        <v>0.0464957962332063</v>
+        <v>0.003135100076567627</v>
       </c>
       <c r="H24">
-        <v>0.03033566523713192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.01697436671778022</v>
+      </c>
+      <c r="I24">
+        <v>0.05638033139128595</v>
+      </c>
+      <c r="J24">
+        <v>0.04455820346334571</v>
+      </c>
+      <c r="K24">
+        <v>0.05815940116636895</v>
+      </c>
+      <c r="L24">
+        <v>0.03704287992516759</v>
+      </c>
+      <c r="M24">
+        <v>-0.1086574384023653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06699459242009866</v>
+        <v>-0.07482335035124682</v>
       </c>
       <c r="C25">
-        <v>-0.04127779912092706</v>
+        <v>0.05211951015882248</v>
       </c>
       <c r="D25">
-        <v>0.03030388806468338</v>
+        <v>0.03251084044961229</v>
       </c>
       <c r="E25">
-        <v>-0.04332936589076353</v>
+        <v>-0.01647548220643355</v>
       </c>
       <c r="F25">
-        <v>0.04287469242218138</v>
+        <v>0.126843918995975</v>
       </c>
       <c r="G25">
-        <v>0.06021847125506302</v>
+        <v>-0.009572232371063328</v>
       </c>
       <c r="H25">
-        <v>0.007260651007464675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.009290013380354631</v>
+      </c>
+      <c r="I25">
+        <v>0.05134899628791061</v>
+      </c>
+      <c r="J25">
+        <v>0.04774452351958344</v>
+      </c>
+      <c r="K25">
+        <v>0.07900456230526179</v>
+      </c>
+      <c r="L25">
+        <v>0.03664491297355615</v>
+      </c>
+      <c r="M25">
+        <v>-0.1143908618942996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.0424699224330706</v>
+        <v>-0.04284624796292361</v>
       </c>
       <c r="C26">
-        <v>-0.03804673080869495</v>
+        <v>0.02270994840406235</v>
       </c>
       <c r="D26">
-        <v>0.0393097797208357</v>
+        <v>-0.01381609218461782</v>
       </c>
       <c r="E26">
-        <v>-0.0008558337839177728</v>
+        <v>0.0005924710049973593</v>
       </c>
       <c r="F26">
-        <v>0.008296240616706573</v>
+        <v>0.03733234512190303</v>
       </c>
       <c r="G26">
-        <v>-0.02517949505927764</v>
+        <v>-0.006378619623184515</v>
       </c>
       <c r="H26">
-        <v>0.01096858366422116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.007229047876194951</v>
+      </c>
+      <c r="I26">
+        <v>0.02310354525349957</v>
+      </c>
+      <c r="J26">
+        <v>-0.08449024220307395</v>
+      </c>
+      <c r="K26">
+        <v>-0.1129897541380661</v>
+      </c>
+      <c r="L26">
+        <v>0.08649784898723595</v>
+      </c>
+      <c r="M26">
+        <v>-0.0179180738544163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1071315760694965</v>
+        <v>-0.1467165776683653</v>
       </c>
       <c r="C28">
-        <v>0.2970208407266875</v>
+        <v>-0.2844749273591745</v>
       </c>
       <c r="D28">
-        <v>0.04186440310641874</v>
+        <v>0.01251297667003828</v>
       </c>
       <c r="E28">
-        <v>-0.003038184794353696</v>
+        <v>-0.02562992084378213</v>
       </c>
       <c r="F28">
-        <v>-0.04853701453913226</v>
+        <v>0.002847679219233051</v>
       </c>
       <c r="G28">
-        <v>-0.0137268432731917</v>
+        <v>0.008319800219269115</v>
       </c>
       <c r="H28">
-        <v>0.05743565455639399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02427645422751395</v>
+      </c>
+      <c r="I28">
+        <v>-0.009323466880044413</v>
+      </c>
+      <c r="J28">
+        <v>0.0008661118507224106</v>
+      </c>
+      <c r="K28">
+        <v>-0.03551819119318841</v>
+      </c>
+      <c r="L28">
+        <v>0.02155645852655235</v>
+      </c>
+      <c r="M28">
+        <v>0.006248858660744302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05251335046741368</v>
+        <v>-0.0427442221911124</v>
       </c>
       <c r="C29">
-        <v>-0.01960174190940918</v>
+        <v>0.02916934177356505</v>
       </c>
       <c r="D29">
-        <v>0.01231082703689459</v>
+        <v>0.002850586507787405</v>
       </c>
       <c r="E29">
-        <v>-0.0244945682148094</v>
+        <v>-0.02011176597779587</v>
       </c>
       <c r="F29">
-        <v>0.006859214320788357</v>
+        <v>0.06011573476200908</v>
       </c>
       <c r="G29">
-        <v>-0.01265869485409187</v>
+        <v>-0.02481839348368289</v>
       </c>
       <c r="H29">
-        <v>-0.00658747260211855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01532139137741103</v>
+      </c>
+      <c r="I29">
+        <v>-0.01422175439861749</v>
+      </c>
+      <c r="J29">
+        <v>-0.06079378249213953</v>
+      </c>
+      <c r="K29">
+        <v>-0.01923810302441042</v>
+      </c>
+      <c r="L29">
+        <v>0.04170892419778376</v>
+      </c>
+      <c r="M29">
+        <v>0.009027969544779099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1308844666544697</v>
+        <v>-0.1005990301965935</v>
       </c>
       <c r="C30">
-        <v>-0.04774851335239914</v>
+        <v>0.06438173006651149</v>
       </c>
       <c r="D30">
-        <v>0.05326159855467686</v>
+        <v>-0.005431106449554785</v>
       </c>
       <c r="E30">
-        <v>-0.1316664981204045</v>
+        <v>-0.03688695765194847</v>
       </c>
       <c r="F30">
-        <v>-0.009223573101912659</v>
+        <v>0.1973789989953687</v>
       </c>
       <c r="G30">
-        <v>0.1455595101971346</v>
+        <v>-0.0119660151457623</v>
       </c>
       <c r="H30">
-        <v>0.03658066737454942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2416788101862092</v>
+      </c>
+      <c r="I30">
+        <v>0.05578932871272735</v>
+      </c>
+      <c r="J30">
+        <v>-0.1374887751803161</v>
+      </c>
+      <c r="K30">
+        <v>-0.06138787797650039</v>
+      </c>
+      <c r="L30">
+        <v>0.1052761699430922</v>
+      </c>
+      <c r="M30">
+        <v>0.403602863913493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.0492696800336491</v>
+        <v>-0.03518503122736454</v>
       </c>
       <c r="C31">
-        <v>-0.02623068214074428</v>
+        <v>0.04668941523127549</v>
       </c>
       <c r="D31">
-        <v>-0.009230999542477775</v>
+        <v>-0.005043246852122594</v>
       </c>
       <c r="E31">
-        <v>0.004171636151468414</v>
+        <v>0.008398436028661171</v>
       </c>
       <c r="F31">
-        <v>0.01288746431141287</v>
+        <v>0.02536538920375512</v>
       </c>
       <c r="G31">
-        <v>-0.03903891758412755</v>
+        <v>-0.02839743222435059</v>
       </c>
       <c r="H31">
-        <v>-0.01083550851613918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03599863244003017</v>
+      </c>
+      <c r="I31">
+        <v>-0.02369761364083832</v>
+      </c>
+      <c r="J31">
+        <v>-0.003945753494856454</v>
+      </c>
+      <c r="K31">
+        <v>0.001325019744925403</v>
+      </c>
+      <c r="L31">
+        <v>0.03562616240346317</v>
+      </c>
+      <c r="M31">
+        <v>-0.0003697174542994029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02153366734229748</v>
+        <v>-0.04155441657349489</v>
       </c>
       <c r="C32">
-        <v>0.01792083238973468</v>
+        <v>-0.00318849476633418</v>
       </c>
       <c r="D32">
-        <v>-0.01694737068916291</v>
+        <v>0.0137384163183582</v>
       </c>
       <c r="E32">
-        <v>-0.08884126145520721</v>
+        <v>-0.002541555519054252</v>
       </c>
       <c r="F32">
-        <v>0.07807657443028058</v>
+        <v>0.08677253255219926</v>
       </c>
       <c r="G32">
-        <v>0.0319398467925049</v>
+        <v>0.01590179877068279</v>
       </c>
       <c r="H32">
-        <v>0.0384092910412249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.08074751750846142</v>
+      </c>
+      <c r="I32">
+        <v>-0.01135727787571541</v>
+      </c>
+      <c r="J32">
+        <v>0.02731122244327516</v>
+      </c>
+      <c r="K32">
+        <v>-0.05274167564149085</v>
+      </c>
+      <c r="L32">
+        <v>0.02494682664498113</v>
+      </c>
+      <c r="M32">
+        <v>0.1274248258778194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1015229494490548</v>
+        <v>-0.09793494690867353</v>
       </c>
       <c r="C33">
-        <v>-0.04458385483127058</v>
+        <v>0.06784474982378519</v>
       </c>
       <c r="D33">
-        <v>0.004535478889296666</v>
+        <v>0.01101416927433247</v>
       </c>
       <c r="E33">
-        <v>-0.01824034021937096</v>
+        <v>0.01110501290134078</v>
       </c>
       <c r="F33">
-        <v>0.05173905129208499</v>
+        <v>0.07482576077967569</v>
       </c>
       <c r="G33">
-        <v>0.01739047173752512</v>
+        <v>-0.0202470998717596</v>
       </c>
       <c r="H33">
-        <v>0.003103812352436539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.009440977077768913</v>
+      </c>
+      <c r="I33">
+        <v>0.006972514588793322</v>
+      </c>
+      <c r="J33">
+        <v>-0.06328223631116689</v>
+      </c>
+      <c r="K33">
+        <v>0.0006289037323170827</v>
+      </c>
+      <c r="L33">
+        <v>-0.006646975728521663</v>
+      </c>
+      <c r="M33">
+        <v>-0.01017379858955131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05621736547185986</v>
+        <v>-0.06494135022148308</v>
       </c>
       <c r="C34">
-        <v>-0.07719465109910095</v>
+        <v>0.06262692458677246</v>
       </c>
       <c r="D34">
-        <v>0.01912848756845915</v>
+        <v>0.02387937637644582</v>
       </c>
       <c r="E34">
-        <v>-0.02394211358216883</v>
+        <v>-0.01167877887947791</v>
       </c>
       <c r="F34">
-        <v>0.02859121764425629</v>
+        <v>0.1075534635355639</v>
       </c>
       <c r="G34">
-        <v>0.03757574663704416</v>
+        <v>-0.00352279156052422</v>
       </c>
       <c r="H34">
-        <v>0.02646992053330531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.001292538480477114</v>
+      </c>
+      <c r="I34">
+        <v>0.04056296593730682</v>
+      </c>
+      <c r="J34">
+        <v>0.03151401655470372</v>
+      </c>
+      <c r="K34">
+        <v>0.04970189568004491</v>
+      </c>
+      <c r="L34">
+        <v>0.04675888551330384</v>
+      </c>
+      <c r="M34">
+        <v>-0.1275573466793114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.0454227532439972</v>
+        <v>-0.02609131607926763</v>
       </c>
       <c r="C35">
-        <v>-0.0459904116170274</v>
+        <v>0.02844972134259945</v>
       </c>
       <c r="D35">
-        <v>0.006904896760798292</v>
+        <v>0.0009467761618652418</v>
       </c>
       <c r="E35">
-        <v>-0.01945379457334782</v>
+        <v>0.001009029917243175</v>
       </c>
       <c r="F35">
-        <v>0.008965139334472523</v>
+        <v>0.0354320600869762</v>
       </c>
       <c r="G35">
-        <v>0.02076173809239135</v>
+        <v>-0.009304702173803648</v>
       </c>
       <c r="H35">
-        <v>-0.002156604154956181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.00155324634971625</v>
+      </c>
+      <c r="I35">
+        <v>0.03334143168249899</v>
+      </c>
+      <c r="J35">
+        <v>-0.01406808566993673</v>
+      </c>
+      <c r="K35">
+        <v>-0.02115032502515703</v>
+      </c>
+      <c r="L35">
+        <v>0.07054428671279175</v>
+      </c>
+      <c r="M35">
+        <v>6.371714296593094e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03571695305590735</v>
+        <v>-0.0296733636409261</v>
       </c>
       <c r="C36">
-        <v>-0.02347751381369206</v>
+        <v>0.02178218069666354</v>
       </c>
       <c r="D36">
-        <v>0.0261724232164322</v>
+        <v>-0.01436649039872402</v>
       </c>
       <c r="E36">
-        <v>-0.03752123543133074</v>
+        <v>-0.01150461743076063</v>
       </c>
       <c r="F36">
-        <v>0.03108754730692119</v>
+        <v>0.06804707735823386</v>
       </c>
       <c r="G36">
-        <v>0.01447213947791935</v>
+        <v>-0.004642448107676428</v>
       </c>
       <c r="H36">
-        <v>-0.02148997346857283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.008615823430046902</v>
+      </c>
+      <c r="I36">
+        <v>-0.005749327808026046</v>
+      </c>
+      <c r="J36">
+        <v>-0.04814062551491664</v>
+      </c>
+      <c r="K36">
+        <v>-0.0160479934321204</v>
+      </c>
+      <c r="L36">
+        <v>0.03800195902723616</v>
+      </c>
+      <c r="M36">
+        <v>-0.03592616952761495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04393546006403971</v>
+        <v>-0.02933860748226936</v>
       </c>
       <c r="C38">
-        <v>-0.03631499177650273</v>
+        <v>0.04850757923164178</v>
       </c>
       <c r="D38">
-        <v>-0.01895736369846771</v>
+        <v>-0.02534680815399947</v>
       </c>
       <c r="E38">
-        <v>-0.03847920041512636</v>
+        <v>-0.001438014889219224</v>
       </c>
       <c r="F38">
-        <v>0.04552850800315503</v>
+        <v>-0.05285245337078849</v>
       </c>
       <c r="G38">
-        <v>0.001512878549117629</v>
+        <v>-0.05001910942650682</v>
       </c>
       <c r="H38">
-        <v>0.05297063742866549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01501806851545654</v>
+      </c>
+      <c r="I38">
+        <v>0.05838752805140567</v>
+      </c>
+      <c r="J38">
+        <v>-0.06743242720181247</v>
+      </c>
+      <c r="K38">
+        <v>-0.09363562795693242</v>
+      </c>
+      <c r="L38">
+        <v>-0.05352404905621633</v>
+      </c>
+      <c r="M38">
+        <v>0.0977062357974641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09865787044106153</v>
+        <v>-0.1004858214301716</v>
       </c>
       <c r="C39">
-        <v>-0.09472861283638773</v>
+        <v>0.09447553501651096</v>
       </c>
       <c r="D39">
-        <v>0.01161744245616993</v>
+        <v>0.08209413540923327</v>
       </c>
       <c r="E39">
-        <v>-0.03298660076340659</v>
+        <v>0.022781551493229</v>
       </c>
       <c r="F39">
-        <v>0.02512453814700793</v>
+        <v>0.1656474279662243</v>
       </c>
       <c r="G39">
-        <v>0.08267472737333983</v>
+        <v>-0.0658028410924163</v>
       </c>
       <c r="H39">
-        <v>0.1052925504488847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1094913800609826</v>
+      </c>
+      <c r="I39">
+        <v>0.1168912555697633</v>
+      </c>
+      <c r="J39">
+        <v>0.1289566110178863</v>
+      </c>
+      <c r="K39">
+        <v>0.07410142774108078</v>
+      </c>
+      <c r="L39">
+        <v>0.133529703494445</v>
+      </c>
+      <c r="M39">
+        <v>0.02499944634301675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.04448853365844551</v>
+        <v>-0.0339680110845521</v>
       </c>
       <c r="C40">
-        <v>-0.03711272327255137</v>
+        <v>0.05882405081602779</v>
       </c>
       <c r="D40">
-        <v>-0.05291057024747874</v>
+        <v>-0.04956256339167007</v>
       </c>
       <c r="E40">
-        <v>-0.1276151510847943</v>
+        <v>-0.00377222341312582</v>
       </c>
       <c r="F40">
-        <v>0.07568722458123255</v>
+        <v>0.1127440034579239</v>
       </c>
       <c r="G40">
-        <v>0.08657599480954559</v>
+        <v>0.07949398054396535</v>
       </c>
       <c r="H40">
-        <v>0.1085440055218193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.001590950678972708</v>
+      </c>
+      <c r="I40">
+        <v>0.09234392579886982</v>
+      </c>
+      <c r="J40">
+        <v>-0.05131016366004444</v>
+      </c>
+      <c r="K40">
+        <v>-0.1259011072195695</v>
+      </c>
+      <c r="L40">
+        <v>-0.03627230684803204</v>
+      </c>
+      <c r="M40">
+        <v>0.0687428183341408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04631752892930872</v>
+        <v>-0.03942220063580474</v>
       </c>
       <c r="C41">
-        <v>-0.05066491827880761</v>
+        <v>0.0366576349827198</v>
       </c>
       <c r="D41">
-        <v>0.009894266399449595</v>
+        <v>0.01446697919230087</v>
       </c>
       <c r="E41">
-        <v>-0.002825509035780902</v>
+        <v>0.001665347006774019</v>
       </c>
       <c r="F41">
-        <v>0.03119215895636781</v>
+        <v>0.02110380253825352</v>
       </c>
       <c r="G41">
-        <v>0.006413302466614741</v>
+        <v>-0.0244887828175972</v>
       </c>
       <c r="H41">
-        <v>0.02232734854740483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.008109178705589713</v>
+      </c>
+      <c r="I41">
+        <v>0.02068471354311047</v>
+      </c>
+      <c r="J41">
+        <v>-0.006830062700033976</v>
+      </c>
+      <c r="K41">
+        <v>-0.03733072979967255</v>
+      </c>
+      <c r="L41">
+        <v>0.023349368300048</v>
+      </c>
+      <c r="M41">
+        <v>-0.03571571270369948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06038032266384102</v>
+        <v>-0.05280566994896722</v>
       </c>
       <c r="C43">
-        <v>-0.03893770717530599</v>
+        <v>0.04458031130233362</v>
       </c>
       <c r="D43">
-        <v>0.02752027298650939</v>
+        <v>-0.01365583206337717</v>
       </c>
       <c r="E43">
-        <v>-0.03249300139420832</v>
+        <v>-0.009513570703141384</v>
       </c>
       <c r="F43">
-        <v>0.0171976647456101</v>
+        <v>0.01438420493974294</v>
       </c>
       <c r="G43">
-        <v>-0.01631271222582517</v>
+        <v>-0.05167153812295901</v>
       </c>
       <c r="H43">
-        <v>0.0213408383302682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01778863818897378</v>
+      </c>
+      <c r="I43">
+        <v>0.006013547532268521</v>
+      </c>
+      <c r="J43">
+        <v>0.005316567383992202</v>
+      </c>
+      <c r="K43">
+        <v>-0.01101457878686627</v>
+      </c>
+      <c r="L43">
+        <v>0.02904248312305759</v>
+      </c>
+      <c r="M43">
+        <v>-0.02805625820828069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05212610780201617</v>
+        <v>-0.0835076678636735</v>
       </c>
       <c r="C44">
-        <v>-0.01000165408624411</v>
+        <v>0.05591038821735042</v>
       </c>
       <c r="D44">
-        <v>0.06697668992219862</v>
+        <v>-0.08156231075075969</v>
       </c>
       <c r="E44">
-        <v>-0.1123785679156288</v>
+        <v>-0.1061339677318808</v>
       </c>
       <c r="F44">
-        <v>0.0411134813608556</v>
+        <v>0.1706648990447157</v>
       </c>
       <c r="G44">
-        <v>0.1169195766648438</v>
+        <v>0.01032615747629038</v>
       </c>
       <c r="H44">
-        <v>0.02055365523900044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01107409929216601</v>
+      </c>
+      <c r="I44">
+        <v>0.09893509754536745</v>
+      </c>
+      <c r="J44">
+        <v>0.005187205189136633</v>
+      </c>
+      <c r="K44">
+        <v>-0.03826735963901307</v>
+      </c>
+      <c r="L44">
+        <v>0.01833021939964913</v>
+      </c>
+      <c r="M44">
+        <v>0.1360548087395016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02132870019474785</v>
+        <v>-0.0334622578146426</v>
       </c>
       <c r="C46">
-        <v>-0.04579413184335154</v>
+        <v>0.03762705688336179</v>
       </c>
       <c r="D46">
-        <v>0.01242177762756655</v>
+        <v>-0.04011047458959958</v>
       </c>
       <c r="E46">
-        <v>-0.03746372676157372</v>
+        <v>-0.03997799749827467</v>
       </c>
       <c r="F46">
-        <v>0.01129697279758448</v>
+        <v>0.03697781047433468</v>
       </c>
       <c r="G46">
-        <v>-0.00848783661223639</v>
+        <v>0.007672883457015786</v>
       </c>
       <c r="H46">
-        <v>0.01346534917235412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05374451874077445</v>
+      </c>
+      <c r="I46">
+        <v>-0.01668849922465384</v>
+      </c>
+      <c r="J46">
+        <v>-0.08173134287728064</v>
+      </c>
+      <c r="K46">
+        <v>-0.03790087935709075</v>
+      </c>
+      <c r="L46">
+        <v>0.06436615868700805</v>
+      </c>
+      <c r="M46">
+        <v>-0.01266071072920359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02490283529836932</v>
+        <v>-0.0447965203149892</v>
       </c>
       <c r="C47">
-        <v>-0.003525243660520261</v>
+        <v>0.02870628843359871</v>
       </c>
       <c r="D47">
-        <v>-0.01000411370039335</v>
+        <v>-0.01827313694115277</v>
       </c>
       <c r="E47">
-        <v>-0.06864304161176238</v>
+        <v>-0.01051882845091429</v>
       </c>
       <c r="F47">
-        <v>0.02269298835508464</v>
+        <v>0.04212258582926451</v>
       </c>
       <c r="G47">
-        <v>0.003665825999927565</v>
+        <v>-0.01644871562182284</v>
       </c>
       <c r="H47">
-        <v>-0.03504340561107228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.009025388403673038</v>
+      </c>
+      <c r="I47">
+        <v>-0.001084167995855795</v>
+      </c>
+      <c r="J47">
+        <v>-0.05220718182731214</v>
+      </c>
+      <c r="K47">
+        <v>-0.004106462001571188</v>
+      </c>
+      <c r="L47">
+        <v>0.01535246772523003</v>
+      </c>
+      <c r="M47">
+        <v>-0.038342696203241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03370927371496789</v>
+        <v>-0.04175785657817831</v>
       </c>
       <c r="C48">
-        <v>-0.02646906131716971</v>
+        <v>0.0208072649917175</v>
       </c>
       <c r="D48">
-        <v>-0.002025109315184818</v>
+        <v>-0.01154237344438517</v>
       </c>
       <c r="E48">
-        <v>-0.05002629634855052</v>
+        <v>0.000536378016193501</v>
       </c>
       <c r="F48">
-        <v>0.02592002683460765</v>
+        <v>0.07337900395992715</v>
       </c>
       <c r="G48">
-        <v>-0.02587382156858089</v>
+        <v>0.03388226670703936</v>
       </c>
       <c r="H48">
-        <v>0.0005881125927327738</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.00249455187449484</v>
+      </c>
+      <c r="I48">
+        <v>-0.0108172137531873</v>
+      </c>
+      <c r="J48">
+        <v>-0.02667797640505807</v>
+      </c>
+      <c r="K48">
+        <v>-0.008678048829171777</v>
+      </c>
+      <c r="L48">
+        <v>0.07414609202459843</v>
+      </c>
+      <c r="M48">
+        <v>-0.02502730500027604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2124275303963393</v>
+        <v>-0.2255207805712491</v>
       </c>
       <c r="C49">
-        <v>-0.1265145765411807</v>
+        <v>0.07783730796067141</v>
       </c>
       <c r="D49">
-        <v>0.06905489534055635</v>
+        <v>0.05442885364054508</v>
       </c>
       <c r="E49">
-        <v>0.04580879203400615</v>
+        <v>-0.02466561959309229</v>
       </c>
       <c r="F49">
-        <v>-0.1821048913065585</v>
+        <v>-0.2448241062512154</v>
       </c>
       <c r="G49">
-        <v>0.02740057660579625</v>
+        <v>0.145152021769684</v>
       </c>
       <c r="H49">
-        <v>0.05492766577469702</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.04449467632829753</v>
+      </c>
+      <c r="I49">
+        <v>0.1526825254493427</v>
+      </c>
+      <c r="J49">
+        <v>0.06913210792486309</v>
+      </c>
+      <c r="K49">
+        <v>0.1453070419502115</v>
+      </c>
+      <c r="L49">
+        <v>-0.05318943404115608</v>
+      </c>
+      <c r="M49">
+        <v>-0.1139757659623816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05676361308295232</v>
+        <v>-0.04469380234956967</v>
       </c>
       <c r="C50">
-        <v>-0.02754653691585167</v>
+        <v>0.04244249083862702</v>
       </c>
       <c r="D50">
-        <v>-0.003331418989957431</v>
+        <v>-0.003643505695253237</v>
       </c>
       <c r="E50">
-        <v>-0.02472329105595074</v>
+        <v>0.01177845075393793</v>
       </c>
       <c r="F50">
-        <v>0.04964741726502231</v>
+        <v>0.05051668174280817</v>
       </c>
       <c r="G50">
-        <v>-0.04232134708975526</v>
+        <v>-0.03689131043883586</v>
       </c>
       <c r="H50">
-        <v>-0.03942385727123759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.01983776757243619</v>
+      </c>
+      <c r="I50">
+        <v>-0.02305235040867316</v>
+      </c>
+      <c r="J50">
+        <v>-0.05193935497592934</v>
+      </c>
+      <c r="K50">
+        <v>-0.01218397785378369</v>
+      </c>
+      <c r="L50">
+        <v>0.02513947810717256</v>
+      </c>
+      <c r="M50">
+        <v>0.024751553510694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02976523310564612</v>
+        <v>-0.02847834629302661</v>
       </c>
       <c r="C51">
-        <v>-0.009262251701991523</v>
+        <v>0.005689471702760434</v>
       </c>
       <c r="D51">
-        <v>0.0009284674627288121</v>
+        <v>0.001857383710514351</v>
       </c>
       <c r="E51">
-        <v>-0.00863254398278876</v>
+        <v>-0.01913165032183826</v>
       </c>
       <c r="F51">
-        <v>0.002392185070045512</v>
+        <v>-0.01863617330440605</v>
       </c>
       <c r="G51">
-        <v>0.01853665063004313</v>
+        <v>-0.005052284369465026</v>
       </c>
       <c r="H51">
-        <v>0.02301310215611992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01752427638075006</v>
+      </c>
+      <c r="I51">
+        <v>0.01818554087538444</v>
+      </c>
+      <c r="J51">
+        <v>0.06020029225039136</v>
+      </c>
+      <c r="K51">
+        <v>0.06549275691789475</v>
+      </c>
+      <c r="L51">
+        <v>-0.01372172301198579</v>
+      </c>
+      <c r="M51">
+        <v>0.01225728910778749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02445971089960801</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.008529192302420245</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01404661925733459</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.006599149885545036</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01326048050809808</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02966090557449082</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.00904811883712685</v>
+      </c>
+      <c r="I52">
+        <v>-6.684264682627526e-05</v>
+      </c>
+      <c r="J52">
+        <v>0.009902663288838333</v>
+      </c>
+      <c r="K52">
+        <v>-0.004593498435612713</v>
+      </c>
+      <c r="L52">
+        <v>0.01944834849058059</v>
+      </c>
+      <c r="M52">
+        <v>0.03021906716942648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1699197755080679</v>
+        <v>-0.1554768631462672</v>
       </c>
       <c r="C53">
-        <v>-0.006920683952422103</v>
+        <v>0.04793860572827164</v>
       </c>
       <c r="D53">
-        <v>0.02098368160865762</v>
+        <v>0.0143588276633463</v>
       </c>
       <c r="E53">
-        <v>0.08602547171424178</v>
+        <v>0.003664777234051638</v>
       </c>
       <c r="F53">
-        <v>0.2450240626908015</v>
+        <v>-0.0563808854295572</v>
       </c>
       <c r="G53">
-        <v>-0.02136707298096124</v>
+        <v>-0.2402697684896037</v>
       </c>
       <c r="H53">
-        <v>-0.0763995116614247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1244680036381765</v>
+      </c>
+      <c r="I53">
+        <v>-0.03561327468750184</v>
+      </c>
+      <c r="J53">
+        <v>-0.05910877411688643</v>
+      </c>
+      <c r="K53">
+        <v>0.01874992982353131</v>
+      </c>
+      <c r="L53">
+        <v>-0.08139767914709725</v>
+      </c>
+      <c r="M53">
+        <v>0.1031566172217596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04807001718769079</v>
+        <v>-0.05788729054064426</v>
       </c>
       <c r="C54">
-        <v>-0.03584766727504743</v>
+        <v>0.03754365334730261</v>
       </c>
       <c r="D54">
-        <v>0.02981612089007285</v>
+        <v>-0.01740393456471099</v>
       </c>
       <c r="E54">
-        <v>-0.05416592077202231</v>
+        <v>-0.02797427088197323</v>
       </c>
       <c r="F54">
-        <v>0.01984319542553824</v>
+        <v>0.1183515243509804</v>
       </c>
       <c r="G54">
-        <v>-0.002304746898106297</v>
+        <v>0.02550714075686744</v>
       </c>
       <c r="H54">
-        <v>-0.0009198497992741839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.03301410447475327</v>
+      </c>
+      <c r="I54">
+        <v>-0.07345257572014253</v>
+      </c>
+      <c r="J54">
+        <v>-0.06559396957660869</v>
+      </c>
+      <c r="K54">
+        <v>-0.08193188469216187</v>
+      </c>
+      <c r="L54">
+        <v>0.06567569701892116</v>
+      </c>
+      <c r="M54">
+        <v>-0.03184045864377941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.0909411752207706</v>
+        <v>-0.08663218057915398</v>
       </c>
       <c r="C55">
-        <v>-0.004077745513377778</v>
+        <v>0.04099913108517086</v>
       </c>
       <c r="D55">
-        <v>0.01894808251577026</v>
+        <v>0.0311646009008346</v>
       </c>
       <c r="E55">
-        <v>0.02180835940917135</v>
+        <v>-0.007153461130075229</v>
       </c>
       <c r="F55">
-        <v>0.2085851135028635</v>
+        <v>0.01612063973392936</v>
       </c>
       <c r="G55">
-        <v>-0.03174956586240109</v>
+        <v>-0.1562095516231089</v>
       </c>
       <c r="H55">
-        <v>-0.0879488576848767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.09109631854407939</v>
+      </c>
+      <c r="I55">
+        <v>-0.02947044547558772</v>
+      </c>
+      <c r="J55">
+        <v>-0.04431292806372962</v>
+      </c>
+      <c r="K55">
+        <v>0.02250561314213449</v>
+      </c>
+      <c r="L55">
+        <v>-0.04913383340862971</v>
+      </c>
+      <c r="M55">
+        <v>0.01862256685444474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1625189090367299</v>
+        <v>-0.14943620253607</v>
       </c>
       <c r="C56">
-        <v>-0.008872775678626826</v>
+        <v>0.0720008299280112</v>
       </c>
       <c r="D56">
-        <v>0.03865274489061669</v>
+        <v>0.03365442323793524</v>
       </c>
       <c r="E56">
-        <v>0.08653854858947396</v>
+        <v>-0.01553951790492286</v>
       </c>
       <c r="F56">
-        <v>0.2241786593402826</v>
+        <v>-0.03038182289832743</v>
       </c>
       <c r="G56">
-        <v>-0.07031309689772201</v>
+        <v>-0.2297739065524161</v>
       </c>
       <c r="H56">
-        <v>-0.07718162631956506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1093960931981538</v>
+      </c>
+      <c r="I56">
+        <v>-0.02247279326970893</v>
+      </c>
+      <c r="J56">
+        <v>-0.04450988412402351</v>
+      </c>
+      <c r="K56">
+        <v>-0.01080750717749764</v>
+      </c>
+      <c r="L56">
+        <v>-0.09526534034938765</v>
+      </c>
+      <c r="M56">
+        <v>0.05179525572203027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.02425160542013966</v>
+        <v>-0.03661583804728922</v>
       </c>
       <c r="C58">
-        <v>-0.04437278900223982</v>
+        <v>0.02936318142675132</v>
       </c>
       <c r="D58">
-        <v>-0.03746075051202823</v>
+        <v>-0.08347229613545713</v>
       </c>
       <c r="E58">
-        <v>-0.3934716378101361</v>
+        <v>-0.01257745087885311</v>
       </c>
       <c r="F58">
-        <v>-0.2969811829094146</v>
+        <v>0.06472635741468592</v>
       </c>
       <c r="G58">
-        <v>-0.04907417815828729</v>
+        <v>0.05956170185481933</v>
       </c>
       <c r="H58">
-        <v>-0.3570039839226559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1282631525384687</v>
+      </c>
+      <c r="I58">
+        <v>-0.04151858207988241</v>
+      </c>
+      <c r="J58">
+        <v>0.09658264686051887</v>
+      </c>
+      <c r="K58">
+        <v>0.2573138894933651</v>
+      </c>
+      <c r="L58">
+        <v>0.4090315619738809</v>
+      </c>
+      <c r="M58">
+        <v>0.01161691342234808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.231840946911047</v>
+        <v>-0.2263696439856678</v>
       </c>
       <c r="C59">
-        <v>0.4083327337667398</v>
+        <v>-0.2975210946841488</v>
       </c>
       <c r="D59">
-        <v>0.04055328772133686</v>
+        <v>0.04964537188218261</v>
       </c>
       <c r="E59">
-        <v>-0.01307572411410188</v>
+        <v>-0.01280844981004793</v>
       </c>
       <c r="F59">
-        <v>0.05469143830775341</v>
+        <v>0.0222397272558563</v>
       </c>
       <c r="G59">
-        <v>0.02952391065763138</v>
+        <v>-0.06741024577626349</v>
       </c>
       <c r="H59">
-        <v>0.06726801199321082</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.0534604346135291</v>
+      </c>
+      <c r="I59">
+        <v>-0.01455355022305885</v>
+      </c>
+      <c r="J59">
+        <v>0.1208057667319099</v>
+      </c>
+      <c r="K59">
+        <v>-0.02872766995688682</v>
+      </c>
+      <c r="L59">
+        <v>-0.09159999898796735</v>
+      </c>
+      <c r="M59">
+        <v>0.04586061073458991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2544576387387011</v>
+        <v>-0.2371213424710871</v>
       </c>
       <c r="C60">
-        <v>-0.07227417952361136</v>
+        <v>0.1227672978814575</v>
       </c>
       <c r="D60">
-        <v>0.08347254445787362</v>
+        <v>0.05945084348776215</v>
       </c>
       <c r="E60">
-        <v>-0.006201848061630979</v>
+        <v>-0.04396112175950505</v>
       </c>
       <c r="F60">
-        <v>-0.05143087550505952</v>
+        <v>-0.1146865045689214</v>
       </c>
       <c r="G60">
-        <v>-0.01487536943105973</v>
+        <v>0.06741254871732424</v>
       </c>
       <c r="H60">
-        <v>-0.05600410607762699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09033000064879684</v>
+      </c>
+      <c r="I60">
+        <v>-0.03763023174050285</v>
+      </c>
+      <c r="J60">
+        <v>-0.01457513832136643</v>
+      </c>
+      <c r="K60">
+        <v>0.1591258428354649</v>
+      </c>
+      <c r="L60">
+        <v>-0.1904842376840849</v>
+      </c>
+      <c r="M60">
+        <v>0.04654505556207713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08186845037970331</v>
+        <v>-0.09537872381263529</v>
       </c>
       <c r="C61">
-        <v>-0.05389360507530919</v>
+        <v>0.06830638400710057</v>
       </c>
       <c r="D61">
-        <v>0.01008452875805581</v>
+        <v>0.04413542491237588</v>
       </c>
       <c r="E61">
-        <v>0.001993423314918979</v>
+        <v>-0.01237083262237543</v>
       </c>
       <c r="F61">
-        <v>0.02301684467806684</v>
+        <v>0.1351703278670018</v>
       </c>
       <c r="G61">
-        <v>0.01659132740278108</v>
+        <v>-0.06788980128343197</v>
       </c>
       <c r="H61">
-        <v>0.06342313565893939</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.0286826401487671</v>
+      </c>
+      <c r="I61">
+        <v>0.068451425722956</v>
+      </c>
+      <c r="J61">
+        <v>0.04560392958097916</v>
+      </c>
+      <c r="K61">
+        <v>0.005206480285767894</v>
+      </c>
+      <c r="L61">
+        <v>0.08306872870784189</v>
+      </c>
+      <c r="M61">
+        <v>-0.01369730042329016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1589513199520496</v>
+        <v>-0.1408585393721553</v>
       </c>
       <c r="C62">
-        <v>-0.04433360991839882</v>
+        <v>0.0714441125824079</v>
       </c>
       <c r="D62">
-        <v>0.0003069582650899204</v>
+        <v>0.03149438697225444</v>
       </c>
       <c r="E62">
-        <v>0.1441779237739235</v>
+        <v>0.03147460622523395</v>
       </c>
       <c r="F62">
-        <v>0.2161230284379134</v>
+        <v>-0.03769474898415563</v>
       </c>
       <c r="G62">
-        <v>0.001332048674885748</v>
+        <v>-0.1748473056538406</v>
       </c>
       <c r="H62">
-        <v>-0.02713827327618576</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1352135919011954</v>
+      </c>
+      <c r="I62">
+        <v>-0.01457221786193278</v>
+      </c>
+      <c r="J62">
+        <v>-0.101650114266311</v>
+      </c>
+      <c r="K62">
+        <v>-0.03958379545181773</v>
+      </c>
+      <c r="L62">
+        <v>-0.08746648882522817</v>
+      </c>
+      <c r="M62">
+        <v>-0.01429582189238156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03824852926777547</v>
+        <v>-0.04638033749788497</v>
       </c>
       <c r="C63">
-        <v>-0.04113992045504194</v>
+        <v>0.03049982914973461</v>
       </c>
       <c r="D63">
-        <v>0.005718139146135918</v>
+        <v>0.006327994617764515</v>
       </c>
       <c r="E63">
-        <v>0.001043751179649746</v>
+        <v>0.01089748479841468</v>
       </c>
       <c r="F63">
-        <v>0.02038298567832756</v>
+        <v>0.07200503677965292</v>
       </c>
       <c r="G63">
-        <v>0.01210258461136567</v>
+        <v>-0.002680956312391298</v>
       </c>
       <c r="H63">
-        <v>-0.04692187724507694</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.004487340719592699</v>
+      </c>
+      <c r="I63">
+        <v>-0.006162778500127006</v>
+      </c>
+      <c r="J63">
+        <v>-0.03530442205617939</v>
+      </c>
+      <c r="K63">
+        <v>0.009199808016992956</v>
+      </c>
+      <c r="L63">
+        <v>0.04612551064482456</v>
+      </c>
+      <c r="M63">
+        <v>-0.02202158128419137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1032154003369081</v>
+        <v>-0.09733591942404533</v>
       </c>
       <c r="C64">
-        <v>-0.02734280887487923</v>
+        <v>0.04663625634289679</v>
       </c>
       <c r="D64">
-        <v>0.0328514020624093</v>
+        <v>-0.009073467276882611</v>
       </c>
       <c r="E64">
-        <v>-0.04128346955670634</v>
+        <v>-0.0385564227239769</v>
       </c>
       <c r="F64">
-        <v>-0.006651963035016564</v>
+        <v>0.06694125518388747</v>
       </c>
       <c r="G64">
-        <v>0.03987871406294029</v>
+        <v>0.01267502417484118</v>
       </c>
       <c r="H64">
-        <v>0.05796455126387133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.07607333032998059</v>
+      </c>
+      <c r="I64">
+        <v>0.0265858770954304</v>
+      </c>
+      <c r="J64">
+        <v>-0.006280578760887271</v>
+      </c>
+      <c r="K64">
+        <v>-0.01155281688395796</v>
+      </c>
+      <c r="L64">
+        <v>0.0197253964440612</v>
+      </c>
+      <c r="M64">
+        <v>0.02339501410908514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.127095243160958</v>
+        <v>-0.121564575950168</v>
       </c>
       <c r="C65">
-        <v>-0.05012882334848795</v>
+        <v>0.04790320490457602</v>
       </c>
       <c r="D65">
-        <v>0.03584281111206008</v>
+        <v>0.008612674244341251</v>
       </c>
       <c r="E65">
-        <v>-0.1020619939780728</v>
+        <v>0.02597007929062225</v>
       </c>
       <c r="F65">
-        <v>-0.152913391283387</v>
+        <v>0.004502330487896696</v>
       </c>
       <c r="G65">
-        <v>0.02221197994322351</v>
+        <v>0.186132171966074</v>
       </c>
       <c r="H65">
-        <v>-0.6011899934658261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2187005106137498</v>
+      </c>
+      <c r="I65">
+        <v>-0.4432628109996587</v>
+      </c>
+      <c r="J65">
+        <v>-0.4153347355197678</v>
+      </c>
+      <c r="K65">
+        <v>0.2254929390588403</v>
+      </c>
+      <c r="L65">
+        <v>-0.1082511902328119</v>
+      </c>
+      <c r="M65">
+        <v>0.1075557536114488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1573999659356491</v>
+        <v>-0.1266159494174665</v>
       </c>
       <c r="C66">
-        <v>-0.1274633698662647</v>
+        <v>0.1303419605087832</v>
       </c>
       <c r="D66">
-        <v>0.0162120196084114</v>
+        <v>0.0962140808029696</v>
       </c>
       <c r="E66">
-        <v>0.007996733542051476</v>
+        <v>0.0392756927892443</v>
       </c>
       <c r="F66">
-        <v>0.05087868294526877</v>
+        <v>0.1680375694939828</v>
       </c>
       <c r="G66">
-        <v>0.1639313942797431</v>
+        <v>-0.06940668047593707</v>
       </c>
       <c r="H66">
-        <v>0.2245143473459035</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.09983380204443988</v>
+      </c>
+      <c r="I66">
+        <v>0.1824510568003016</v>
+      </c>
+      <c r="J66">
+        <v>0.1483892608340844</v>
+      </c>
+      <c r="K66">
+        <v>0.04951157777951012</v>
+      </c>
+      <c r="L66">
+        <v>0.0821186468632315</v>
+      </c>
+      <c r="M66">
+        <v>0.08896322251424987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.08152782617660802</v>
+        <v>-0.07860513031758416</v>
       </c>
       <c r="C67">
-        <v>-0.05125583907094993</v>
+        <v>0.06015796826525825</v>
       </c>
       <c r="D67">
-        <v>0.006665757101889875</v>
+        <v>-0.02121147449713559</v>
       </c>
       <c r="E67">
-        <v>-0.006189772030725221</v>
+        <v>-0.01796320295990724</v>
       </c>
       <c r="F67">
-        <v>0.02573509905226185</v>
+        <v>-0.05943917508395304</v>
       </c>
       <c r="G67">
-        <v>-0.001467935854799794</v>
+        <v>-0.08158362672528689</v>
       </c>
       <c r="H67">
-        <v>0.06875554110527554</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.04246191506831122</v>
+      </c>
+      <c r="I67">
+        <v>0.07655582645389183</v>
+      </c>
+      <c r="J67">
+        <v>-0.006885743272913324</v>
+      </c>
+      <c r="K67">
+        <v>-0.09305567496333807</v>
+      </c>
+      <c r="L67">
+        <v>-0.1099159521555826</v>
+      </c>
+      <c r="M67">
+        <v>0.07226016188957778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09443077024371492</v>
+        <v>-0.1240214509796579</v>
       </c>
       <c r="C68">
-        <v>0.2804635502173268</v>
+        <v>-0.2728774898778833</v>
       </c>
       <c r="D68">
-        <v>-0.001211996050278621</v>
+        <v>0.01080915437445476</v>
       </c>
       <c r="E68">
-        <v>-0.01793055866720362</v>
+        <v>-0.002050536096519208</v>
       </c>
       <c r="F68">
-        <v>0.02638163457508329</v>
+        <v>0.03539706919193407</v>
       </c>
       <c r="G68">
-        <v>-0.03763622016038208</v>
+        <v>-0.02635790325904626</v>
       </c>
       <c r="H68">
-        <v>-0.02518675921463309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01166262737572397</v>
+      </c>
+      <c r="I68">
+        <v>-0.03957760496678731</v>
+      </c>
+      <c r="J68">
+        <v>-0.04634886355903586</v>
+      </c>
+      <c r="K68">
+        <v>0.02319816151202668</v>
+      </c>
+      <c r="L68">
+        <v>0.01991046242738867</v>
+      </c>
+      <c r="M68">
+        <v>0.02767595187826376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.0344122799306709</v>
+        <v>-0.04281728443030165</v>
       </c>
       <c r="C69">
-        <v>-0.02624767700129273</v>
+        <v>0.02015058512708561</v>
       </c>
       <c r="D69">
-        <v>0.007911898192045743</v>
+        <v>-0.006049001674982057</v>
       </c>
       <c r="E69">
-        <v>-0.01233183122310303</v>
+        <v>-0.002368572638740656</v>
       </c>
       <c r="F69">
-        <v>0.02583120071783169</v>
+        <v>0.01953916514337724</v>
       </c>
       <c r="G69">
-        <v>0.03734404786020083</v>
+        <v>-0.02424229455146402</v>
       </c>
       <c r="H69">
-        <v>-0.003260458202845534</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01325619234648352</v>
+      </c>
+      <c r="I69">
+        <v>0.01175672296924855</v>
+      </c>
+      <c r="J69">
+        <v>-0.01767421135816929</v>
+      </c>
+      <c r="K69">
+        <v>-0.004845941146262429</v>
+      </c>
+      <c r="L69">
+        <v>-0.004782179634404472</v>
+      </c>
+      <c r="M69">
+        <v>-0.07527944572957236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05387569229811282</v>
+        <v>-0.05252915027231345</v>
       </c>
       <c r="C70">
-        <v>0.005690379146251615</v>
+        <v>0.03522735591571664</v>
       </c>
       <c r="D70">
-        <v>0.03915124509826567</v>
+        <v>0.02131328987211057</v>
       </c>
       <c r="E70">
-        <v>-0.002002119834247109</v>
+        <v>-0.02392867902969262</v>
       </c>
       <c r="F70">
-        <v>-0.09066622677874761</v>
+        <v>-0.009160283538243826</v>
       </c>
       <c r="G70">
-        <v>-0.05108160369075466</v>
+        <v>0.06323752285717767</v>
       </c>
       <c r="H70">
-        <v>0.05252172267901271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.004357756435963795</v>
+      </c>
+      <c r="I70">
+        <v>-0.05191404558912041</v>
+      </c>
+      <c r="J70">
+        <v>-0.136114478708187</v>
+      </c>
+      <c r="K70">
+        <v>-0.2628364146854865</v>
+      </c>
+      <c r="L70">
+        <v>0.0548705871199378</v>
+      </c>
+      <c r="M70">
+        <v>-0.08163296585985616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1015303006069552</v>
+        <v>-0.1388798548634879</v>
       </c>
       <c r="C71">
-        <v>0.2789868644896383</v>
+        <v>-0.2804452317413672</v>
       </c>
       <c r="D71">
-        <v>0.0347298529608891</v>
+        <v>0.01539116708589334</v>
       </c>
       <c r="E71">
-        <v>-0.01298293107723015</v>
+        <v>-0.02008296393157977</v>
       </c>
       <c r="F71">
-        <v>-0.002422571500880048</v>
+        <v>0.03545475821233057</v>
       </c>
       <c r="G71">
-        <v>-0.01381774118844036</v>
+        <v>-0.02593009033581991</v>
       </c>
       <c r="H71">
-        <v>0.004432720938211476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02622861805813209</v>
+      </c>
+      <c r="I71">
+        <v>0.0003881989955456324</v>
+      </c>
+      <c r="J71">
+        <v>-0.02441249398003971</v>
+      </c>
+      <c r="K71">
+        <v>0.02019136292335436</v>
+      </c>
+      <c r="L71">
+        <v>0.01059123535848684</v>
+      </c>
+      <c r="M71">
+        <v>0.008942963631788084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1809763126154759</v>
+        <v>-0.1431218459033925</v>
       </c>
       <c r="C72">
-        <v>-0.02416556989899917</v>
+        <v>0.03186492007011268</v>
       </c>
       <c r="D72">
-        <v>-0.2459396399165529</v>
+        <v>-0.007843748718782358</v>
       </c>
       <c r="E72">
-        <v>0.04836998607817765</v>
+        <v>0.1860589783459172</v>
       </c>
       <c r="F72">
-        <v>0.05139707651875238</v>
+        <v>0.03586569977912229</v>
       </c>
       <c r="G72">
-        <v>0.07777882795816675</v>
+        <v>-0.02050720924180151</v>
       </c>
       <c r="H72">
-        <v>-0.07953157391978498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.005832774727094009</v>
+      </c>
+      <c r="I72">
+        <v>-0.05462099976123687</v>
+      </c>
+      <c r="J72">
+        <v>-0.06343584796890424</v>
+      </c>
+      <c r="K72">
+        <v>0.04972848489476406</v>
+      </c>
+      <c r="L72">
+        <v>-0.1356019209681446</v>
+      </c>
+      <c r="M72">
+        <v>0.02792392082794693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2818068765504899</v>
+        <v>-0.2402391296547518</v>
       </c>
       <c r="C73">
-        <v>-0.1878825194964389</v>
+        <v>0.1529062854453372</v>
       </c>
       <c r="D73">
-        <v>0.1004340634079447</v>
+        <v>0.1399183970289864</v>
       </c>
       <c r="E73">
-        <v>0.03012543045206639</v>
+        <v>-0.08494623800092677</v>
       </c>
       <c r="F73">
-        <v>-0.2117364346703742</v>
+        <v>-0.4435888677583254</v>
       </c>
       <c r="G73">
-        <v>0.02041512007431976</v>
+        <v>0.1317616979030738</v>
       </c>
       <c r="H73">
-        <v>-0.1372953464282098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2484224936418846</v>
+      </c>
+      <c r="I73">
+        <v>0.2710153987335283</v>
+      </c>
+      <c r="J73">
+        <v>0.1542246129876059</v>
+      </c>
+      <c r="K73">
+        <v>0.2903000675648348</v>
+      </c>
+      <c r="L73">
+        <v>-0.05792201465465974</v>
+      </c>
+      <c r="M73">
+        <v>0.1646069456821243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09202078816828986</v>
+        <v>-0.09277350701685298</v>
       </c>
       <c r="C74">
-        <v>-0.04147846206408173</v>
+        <v>0.072614147332666</v>
       </c>
       <c r="D74">
-        <v>0.00831704892157225</v>
+        <v>0.009345379052401947</v>
       </c>
       <c r="E74">
-        <v>0.02546356386103532</v>
+        <v>0.009777401764993632</v>
       </c>
       <c r="F74">
-        <v>0.1240215232052768</v>
+        <v>-0.03023694640143213</v>
       </c>
       <c r="G74">
-        <v>-0.03918931382984172</v>
+        <v>-0.1481558935116062</v>
       </c>
       <c r="H74">
-        <v>-0.07934162294181951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02621735991378718</v>
+      </c>
+      <c r="I74">
+        <v>0.02955094836653727</v>
+      </c>
+      <c r="J74">
+        <v>-0.04270624251453215</v>
+      </c>
+      <c r="K74">
+        <v>0.02249576092838891</v>
+      </c>
+      <c r="L74">
+        <v>-0.01709798567617012</v>
+      </c>
+      <c r="M74">
+        <v>0.0165262503897884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.0909457781064781</v>
+        <v>-0.09250405096169241</v>
       </c>
       <c r="C75">
-        <v>-0.01714265746663462</v>
+        <v>0.05344880654428424</v>
       </c>
       <c r="D75">
-        <v>0.01156981589496449</v>
+        <v>0.006605717335252673</v>
       </c>
       <c r="E75">
-        <v>0.04263292378106709</v>
+        <v>0.009760241250918171</v>
       </c>
       <c r="F75">
-        <v>0.1072782220232605</v>
+        <v>-0.01908105355179572</v>
       </c>
       <c r="G75">
-        <v>-0.05129801592591597</v>
+        <v>-0.1055147661878841</v>
       </c>
       <c r="H75">
-        <v>-0.03225117224938383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.072282102235148</v>
+      </c>
+      <c r="I75">
+        <v>-0.0332177767910771</v>
+      </c>
+      <c r="J75">
+        <v>-0.00744597423858605</v>
+      </c>
+      <c r="K75">
+        <v>-0.004173574626544913</v>
+      </c>
+      <c r="L75">
+        <v>-0.03470689090858255</v>
+      </c>
+      <c r="M75">
+        <v>-0.07344193307467968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1342841421346657</v>
+        <v>-0.08577725091880656</v>
       </c>
       <c r="C76">
-        <v>-0.02518947472829775</v>
+        <v>0.06294307980374422</v>
       </c>
       <c r="D76">
-        <v>0.01668274020624339</v>
+        <v>0.005237226545352199</v>
       </c>
       <c r="E76">
-        <v>0.0265948342435178</v>
+        <v>-0.008508386546938888</v>
       </c>
       <c r="F76">
-        <v>0.2302531152227788</v>
+        <v>-0.04942977489462601</v>
       </c>
       <c r="G76">
-        <v>-0.06481267063036529</v>
+        <v>-0.1948494613646252</v>
       </c>
       <c r="H76">
-        <v>-0.09847406917232759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1084415457367152</v>
+      </c>
+      <c r="I76">
+        <v>-0.03802594456838571</v>
+      </c>
+      <c r="J76">
+        <v>-0.02721344484290111</v>
+      </c>
+      <c r="K76">
+        <v>0.01136811692841449</v>
+      </c>
+      <c r="L76">
+        <v>-0.04535970281631121</v>
+      </c>
+      <c r="M76">
+        <v>0.08921751762191615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07063690694586426</v>
+        <v>-0.06761963527956923</v>
       </c>
       <c r="C77">
-        <v>-0.02083170490190545</v>
+        <v>0.02549146595911338</v>
       </c>
       <c r="D77">
-        <v>0.01585617552763865</v>
+        <v>0.01641663541851058</v>
       </c>
       <c r="E77">
-        <v>-0.165953556133416</v>
+        <v>-0.04973918178850064</v>
       </c>
       <c r="F77">
-        <v>-0.08745776470139774</v>
+        <v>0.2693231245632441</v>
       </c>
       <c r="G77">
-        <v>0.6704486760777351</v>
+        <v>0.157133114716188</v>
       </c>
       <c r="H77">
-        <v>0.1774205589740942</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.3465543021572144</v>
+      </c>
+      <c r="I77">
+        <v>0.03830877125672963</v>
+      </c>
+      <c r="J77">
+        <v>0.2451437462760001</v>
+      </c>
+      <c r="K77">
+        <v>-0.3615851040174449</v>
+      </c>
+      <c r="L77">
+        <v>-0.5359679682098665</v>
+      </c>
+      <c r="M77">
+        <v>0.009611319438708556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1484689930846609</v>
+        <v>-0.1635617716370673</v>
       </c>
       <c r="C78">
-        <v>-0.08973956361079247</v>
+        <v>0.1270134565648734</v>
       </c>
       <c r="D78">
-        <v>0.02822590958803103</v>
+        <v>-0.1781225406565773</v>
       </c>
       <c r="E78">
-        <v>-0.1911073923531123</v>
+        <v>-0.1073476487182128</v>
       </c>
       <c r="F78">
-        <v>0.0006541117071954339</v>
+        <v>0.1342237153940234</v>
       </c>
       <c r="G78">
-        <v>0.006527165713366077</v>
+        <v>0.2520073956259725</v>
       </c>
       <c r="H78">
-        <v>0.08741548460251355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4124277317329419</v>
+      </c>
+      <c r="I78">
+        <v>-0.4352707352322358</v>
+      </c>
+      <c r="J78">
+        <v>0.546560073253574</v>
+      </c>
+      <c r="K78">
+        <v>0.1533835683488503</v>
+      </c>
+      <c r="L78">
+        <v>-0.07742358293906167</v>
+      </c>
+      <c r="M78">
+        <v>0.1116876641951758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1405727533116782</v>
+        <v>-0.1331250138085185</v>
       </c>
       <c r="C79">
-        <v>-0.04519398920958446</v>
+        <v>0.0766431167307666</v>
       </c>
       <c r="D79">
-        <v>0.02480367144613</v>
+        <v>0.004156828931146951</v>
       </c>
       <c r="E79">
-        <v>0.05768646590713958</v>
+        <v>-0.006663878107921342</v>
       </c>
       <c r="F79">
-        <v>0.1589159159299441</v>
+        <v>0.002169782258177079</v>
       </c>
       <c r="G79">
-        <v>-0.04265345731380037</v>
+        <v>-0.167540058491987</v>
       </c>
       <c r="H79">
-        <v>-0.03140256859606805</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.0799291269890634</v>
+      </c>
+      <c r="I79">
+        <v>-0.01200444830379989</v>
+      </c>
+      <c r="J79">
+        <v>-0.06947427678184548</v>
+      </c>
+      <c r="K79">
+        <v>-0.005841048300673004</v>
+      </c>
+      <c r="L79">
+        <v>-0.07243439438647302</v>
+      </c>
+      <c r="M79">
+        <v>-0.02095742354486571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02563626019836163</v>
+        <v>-0.05732928679336654</v>
       </c>
       <c r="C80">
-        <v>0.0004795310893204798</v>
+        <v>0.02660067727795911</v>
       </c>
       <c r="D80">
-        <v>0.005189155117957442</v>
+        <v>0.06857820024047552</v>
       </c>
       <c r="E80">
-        <v>0.04190367800956504</v>
+        <v>-0.01044188338801781</v>
       </c>
       <c r="F80">
-        <v>0.004704135875144688</v>
+        <v>0.0309730849433</v>
       </c>
       <c r="G80">
-        <v>0.01807809339550519</v>
+        <v>0.0193591737957205</v>
       </c>
       <c r="H80">
-        <v>-0.05005865375477712</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01428527499147345</v>
+      </c>
+      <c r="I80">
+        <v>-0.04722282093980723</v>
+      </c>
+      <c r="J80">
+        <v>-0.07231518148502916</v>
+      </c>
+      <c r="K80">
+        <v>0.04814111363548536</v>
+      </c>
+      <c r="L80">
+        <v>0.1709468942497229</v>
+      </c>
+      <c r="M80">
+        <v>0.001514440341949973</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1089124969788945</v>
+        <v>-0.1206366297930425</v>
       </c>
       <c r="C81">
-        <v>-0.04133120687428645</v>
+        <v>0.06143082194213607</v>
       </c>
       <c r="D81">
-        <v>0.02664414588593138</v>
+        <v>0.003667307100208031</v>
       </c>
       <c r="E81">
-        <v>0.06340911877653545</v>
+        <v>-0.006637678269316644</v>
       </c>
       <c r="F81">
-        <v>0.1144534896192019</v>
+        <v>0.02491184531925572</v>
       </c>
       <c r="G81">
-        <v>-0.01590518221931207</v>
+        <v>-0.1333870849511135</v>
       </c>
       <c r="H81">
-        <v>-0.01419361032681592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07912830546825865</v>
+      </c>
+      <c r="I81">
+        <v>0.01313082566504491</v>
+      </c>
+      <c r="J81">
+        <v>-0.03278401184621741</v>
+      </c>
+      <c r="K81">
+        <v>-0.003810376529510134</v>
+      </c>
+      <c r="L81">
+        <v>-0.04837336498251861</v>
+      </c>
+      <c r="M81">
+        <v>-0.1048151174356006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1126713621092791</v>
+        <v>-0.1191894677320941</v>
       </c>
       <c r="C82">
-        <v>-0.02706897363460284</v>
+        <v>0.05278394419716021</v>
       </c>
       <c r="D82">
-        <v>0.05909605584660516</v>
+        <v>0.02712649688653041</v>
       </c>
       <c r="E82">
-        <v>0.08615886573029612</v>
+        <v>-0.001592488706870587</v>
       </c>
       <c r="F82">
-        <v>0.2350396544561034</v>
+        <v>-0.02021376683012243</v>
       </c>
       <c r="G82">
-        <v>-0.05267604838509213</v>
+        <v>-0.238358955536641</v>
       </c>
       <c r="H82">
-        <v>-0.02889109428641341</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1265045659480269</v>
+      </c>
+      <c r="I82">
+        <v>0.04254264675776388</v>
+      </c>
+      <c r="J82">
+        <v>-0.04453020013153981</v>
+      </c>
+      <c r="K82">
+        <v>-0.06487124840193194</v>
+      </c>
+      <c r="L82">
+        <v>0.01117497840914224</v>
+      </c>
+      <c r="M82">
+        <v>-0.04523492336514797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.0626651057098523</v>
+        <v>-0.07200939218047447</v>
       </c>
       <c r="C83">
-        <v>-0.0479805482917051</v>
+        <v>0.07150305107801611</v>
       </c>
       <c r="D83">
-        <v>0.02659229721700274</v>
+        <v>0.01910084208979761</v>
       </c>
       <c r="E83">
-        <v>-0.003135608208312375</v>
+        <v>-0.005920674590756117</v>
       </c>
       <c r="F83">
-        <v>-0.05539754810024995</v>
+        <v>0.01307506498845841</v>
       </c>
       <c r="G83">
-        <v>0.01635227204695703</v>
+        <v>-0.03487734551594086</v>
       </c>
       <c r="H83">
-        <v>0.09645355815632307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.07379989182323402</v>
+      </c>
+      <c r="I83">
+        <v>0.001065808561127881</v>
+      </c>
+      <c r="J83">
+        <v>-0.001868918089109987</v>
+      </c>
+      <c r="K83">
+        <v>-0.08899535456871122</v>
+      </c>
+      <c r="L83">
+        <v>0.09070012782337912</v>
+      </c>
+      <c r="M83">
+        <v>0.03777804754731333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05150811756663049</v>
+        <v>-0.05168582285772345</v>
       </c>
       <c r="C84">
-        <v>-0.04719692641488137</v>
+        <v>-0.02112403183041462</v>
       </c>
       <c r="D84">
-        <v>-0.06502952598409953</v>
+        <v>0.003556209311109074</v>
       </c>
       <c r="E84">
-        <v>0.002271358399657935</v>
+        <v>0.01817516546703685</v>
       </c>
       <c r="F84">
-        <v>0.03453890748608078</v>
+        <v>0.02213357205117572</v>
       </c>
       <c r="G84">
-        <v>-0.1472496704794105</v>
+        <v>0.200789860317015</v>
       </c>
       <c r="H84">
-        <v>0.008144916674773465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1571083102348778</v>
+      </c>
+      <c r="I84">
+        <v>0.1635927031948166</v>
+      </c>
+      <c r="J84">
+        <v>-0.03800304737972913</v>
+      </c>
+      <c r="K84">
+        <v>-0.06624212304769229</v>
+      </c>
+      <c r="L84">
+        <v>0.2503659112869169</v>
+      </c>
+      <c r="M84">
+        <v>0.4876187436780987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08901974628177733</v>
+        <v>-0.1089468839214097</v>
       </c>
       <c r="C85">
-        <v>-0.0425816328310235</v>
+        <v>0.05098607215358349</v>
       </c>
       <c r="D85">
-        <v>0.05852771569021119</v>
+        <v>0.01306480546952121</v>
       </c>
       <c r="E85">
-        <v>0.03893150560613665</v>
+        <v>-0.03413533061853227</v>
       </c>
       <c r="F85">
-        <v>0.1867779044338386</v>
+        <v>0.004944143278193249</v>
       </c>
       <c r="G85">
-        <v>0.000305479230628737</v>
+        <v>-0.172028220890122</v>
       </c>
       <c r="H85">
-        <v>-0.06793213856047725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08133535655530905</v>
+      </c>
+      <c r="I85">
+        <v>-0.005497769315839621</v>
+      </c>
+      <c r="J85">
+        <v>-0.06331057441934029</v>
+      </c>
+      <c r="K85">
+        <v>0.009485737537255387</v>
+      </c>
+      <c r="L85">
+        <v>-0.08985124697593073</v>
+      </c>
+      <c r="M85">
+        <v>-0.03473741505295269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.0485020966358545</v>
+        <v>-0.0732825156089201</v>
       </c>
       <c r="C86">
-        <v>-0.04281260738176521</v>
+        <v>0.02230260170137614</v>
       </c>
       <c r="D86">
-        <v>0.02539876078225962</v>
+        <v>-0.01972375188759118</v>
       </c>
       <c r="E86">
-        <v>-0.05238175125813126</v>
+        <v>-0.1170458925697114</v>
       </c>
       <c r="F86">
-        <v>-0.007128905793756099</v>
+        <v>0.04880741618901363</v>
       </c>
       <c r="G86">
-        <v>0.08166033199900988</v>
+        <v>0.4477631426117725</v>
       </c>
       <c r="H86">
-        <v>-0.07337544873456497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4997355490786929</v>
+      </c>
+      <c r="I86">
+        <v>0.3901479057722571</v>
+      </c>
+      <c r="J86">
+        <v>-0.335993968666521</v>
+      </c>
+      <c r="K86">
+        <v>0.03140501109955526</v>
+      </c>
+      <c r="L86">
+        <v>-0.2089007869860572</v>
+      </c>
+      <c r="M86">
+        <v>0.009264479102755883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09391456427698905</v>
+        <v>-0.1147985835377186</v>
       </c>
       <c r="C87">
-        <v>-0.04968275257193375</v>
+        <v>0.06794467856772321</v>
       </c>
       <c r="D87">
-        <v>-0.0023418681328965</v>
+        <v>-0.0304100087714637</v>
       </c>
       <c r="E87">
-        <v>-0.08172721660177007</v>
+        <v>-0.02897879069052121</v>
       </c>
       <c r="F87">
-        <v>-0.003538908304772835</v>
+        <v>0.1168551459974655</v>
       </c>
       <c r="G87">
-        <v>0.1352039540295911</v>
+        <v>0.07890488685634346</v>
       </c>
       <c r="H87">
-        <v>0.07742793716809269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1183397290419289</v>
+      </c>
+      <c r="I87">
+        <v>0.0488145030527064</v>
+      </c>
+      <c r="J87">
+        <v>0.01018115502130419</v>
+      </c>
+      <c r="K87">
+        <v>-0.1890440697323072</v>
+      </c>
+      <c r="L87">
+        <v>-0.03307841869351141</v>
+      </c>
+      <c r="M87">
+        <v>-0.04014619650360936</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05649811454894977</v>
+        <v>-0.05764844583844566</v>
       </c>
       <c r="C88">
-        <v>-0.04282358858331781</v>
+        <v>0.0547217834410866</v>
       </c>
       <c r="D88">
-        <v>0.02567536358278851</v>
+        <v>0.02820909084922496</v>
       </c>
       <c r="E88">
-        <v>-0.009863729670566524</v>
+        <v>-0.004385637685783486</v>
       </c>
       <c r="F88">
-        <v>-0.008530516813605976</v>
+        <v>0.03792726362048932</v>
       </c>
       <c r="G88">
-        <v>0.02722235268701824</v>
+        <v>-0.02853061955834728</v>
       </c>
       <c r="H88">
-        <v>0.03087642552258304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.0176466877160292</v>
+      </c>
+      <c r="I88">
+        <v>0.0210829265867333</v>
+      </c>
+      <c r="J88">
+        <v>-0.0107601099759591</v>
+      </c>
+      <c r="K88">
+        <v>0.02495713703326318</v>
+      </c>
+      <c r="L88">
+        <v>0.05845953447088274</v>
+      </c>
+      <c r="M88">
+        <v>-0.05908070086460918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1574166623455703</v>
+        <v>-0.2139685379587941</v>
       </c>
       <c r="C89">
-        <v>0.3279959053791506</v>
+        <v>-0.3573962792351721</v>
       </c>
       <c r="D89">
-        <v>0.0716119589260005</v>
+        <v>-0.03782688310225233</v>
       </c>
       <c r="E89">
-        <v>-0.09175798023866504</v>
+        <v>-0.08163436864604279</v>
       </c>
       <c r="F89">
-        <v>-0.04801802717108351</v>
+        <v>0.01302708577740733</v>
       </c>
       <c r="G89">
-        <v>0.02342116895722349</v>
+        <v>0.009303060788517874</v>
       </c>
       <c r="H89">
-        <v>0.003118929619279842</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.003507190622539532</v>
+      </c>
+      <c r="I89">
+        <v>0.02562292053277192</v>
+      </c>
+      <c r="J89">
+        <v>0.05432275907996924</v>
+      </c>
+      <c r="K89">
+        <v>0.01612027539941209</v>
+      </c>
+      <c r="L89">
+        <v>0.05526085634727888</v>
+      </c>
+      <c r="M89">
+        <v>-0.07304770215428416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1235581992191028</v>
+        <v>-0.1515298268494147</v>
       </c>
       <c r="C90">
-        <v>0.2795448948466157</v>
+        <v>-0.269402229197121</v>
       </c>
       <c r="D90">
-        <v>0.007589688267075083</v>
+        <v>0.01059500064766781</v>
       </c>
       <c r="E90">
-        <v>-0.06443974082746545</v>
+        <v>-0.01770130325222191</v>
       </c>
       <c r="F90">
-        <v>-0.03508436515500398</v>
+        <v>0.03636839050426936</v>
       </c>
       <c r="G90">
-        <v>0.09658865659563777</v>
+        <v>0.01849179552586331</v>
       </c>
       <c r="H90">
-        <v>0.03782682253981939</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05636210794436063</v>
+      </c>
+      <c r="I90">
+        <v>0.03187633288527013</v>
+      </c>
+      <c r="J90">
+        <v>0.00659692519970227</v>
+      </c>
+      <c r="K90">
+        <v>0.0272603839504194</v>
+      </c>
+      <c r="L90">
+        <v>0.004953715554983967</v>
+      </c>
+      <c r="M90">
+        <v>0.05594810567323141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08128911883965269</v>
+        <v>-0.07695276975673393</v>
       </c>
       <c r="C91">
-        <v>-0.01872674189552537</v>
+        <v>0.05339628201688242</v>
       </c>
       <c r="D91">
-        <v>0.01241671290255202</v>
+        <v>-0.00551446169865213</v>
       </c>
       <c r="E91">
-        <v>-0.008675124738340484</v>
+        <v>-0.01024231243955216</v>
       </c>
       <c r="F91">
-        <v>0.09772979587203437</v>
+        <v>-0.01155162509880872</v>
       </c>
       <c r="G91">
-        <v>-0.05983195852632871</v>
+        <v>-0.08931790688398374</v>
       </c>
       <c r="H91">
-        <v>-0.0348829110491712</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06513590803061864</v>
+      </c>
+      <c r="I91">
+        <v>0.0006146129499517216</v>
+      </c>
+      <c r="J91">
+        <v>0.007070150491960994</v>
+      </c>
+      <c r="K91">
+        <v>0.01223255599791219</v>
+      </c>
+      <c r="L91">
+        <v>-0.009118058676576873</v>
+      </c>
+      <c r="M91">
+        <v>0.005162395592084969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1353912108875897</v>
+        <v>-0.1707829525885891</v>
       </c>
       <c r="C92">
-        <v>0.3048722250372326</v>
+        <v>-0.3046112239210641</v>
       </c>
       <c r="D92">
-        <v>0.04963008280823527</v>
+        <v>-0.02985069816803914</v>
       </c>
       <c r="E92">
-        <v>-0.04843553600216211</v>
+        <v>-0.04910732490500239</v>
       </c>
       <c r="F92">
-        <v>-0.04169097733873587</v>
+        <v>0.03863042705775661</v>
       </c>
       <c r="G92">
-        <v>-0.08820496870814969</v>
+        <v>-0.02893056010317927</v>
       </c>
       <c r="H92">
-        <v>-0.02049172661526354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01362078349032926</v>
+      </c>
+      <c r="I92">
+        <v>-0.001770333133879041</v>
+      </c>
+      <c r="J92">
+        <v>0.01625245380701802</v>
+      </c>
+      <c r="K92">
+        <v>0.03331586208379621</v>
+      </c>
+      <c r="L92">
+        <v>0.05116943180002273</v>
+      </c>
+      <c r="M92">
+        <v>-0.07739774091147501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1339553245645854</v>
+        <v>-0.1651308395657454</v>
       </c>
       <c r="C93">
-        <v>0.2608054432361064</v>
+        <v>-0.2862753963191569</v>
       </c>
       <c r="D93">
-        <v>0.02794993346995151</v>
+        <v>0.03339108383073937</v>
       </c>
       <c r="E93">
-        <v>-0.02362965557049027</v>
+        <v>-0.006884705593291025</v>
       </c>
       <c r="F93">
-        <v>-0.03012429192026962</v>
+        <v>0.01384014316946498</v>
       </c>
       <c r="G93">
-        <v>0.01460633364527231</v>
+        <v>0.01446216608136743</v>
       </c>
       <c r="H93">
-        <v>0.01719236609726976</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01183677495975217</v>
+      </c>
+      <c r="I93">
+        <v>0.01419962948792782</v>
+      </c>
+      <c r="J93">
+        <v>-0.04003527769202704</v>
+      </c>
+      <c r="K93">
+        <v>-0.004448220207906867</v>
+      </c>
+      <c r="L93">
+        <v>0.02170165874604096</v>
+      </c>
+      <c r="M93">
+        <v>0.03365782665361139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09093186531833959</v>
+        <v>-0.1096864894638072</v>
       </c>
       <c r="C94">
-        <v>-0.05562298081036553</v>
+        <v>0.0750284032355949</v>
       </c>
       <c r="D94">
-        <v>0.009150976750641091</v>
+        <v>-0.01840106097691595</v>
       </c>
       <c r="E94">
-        <v>0.006759703114240501</v>
+        <v>-0.01647217447532929</v>
       </c>
       <c r="F94">
-        <v>0.1585354916800268</v>
+        <v>-0.02932942521638962</v>
       </c>
       <c r="G94">
-        <v>-0.08329616669611203</v>
+        <v>-0.1321582617380149</v>
       </c>
       <c r="H94">
-        <v>-0.07304309172017935</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06276121161908006</v>
+      </c>
+      <c r="I94">
+        <v>-0.02485034946610673</v>
+      </c>
+      <c r="J94">
+        <v>-0.01345381459211451</v>
+      </c>
+      <c r="K94">
+        <v>0.04696366162805693</v>
+      </c>
+      <c r="L94">
+        <v>-0.003449341967978338</v>
+      </c>
+      <c r="M94">
+        <v>-0.008764624837887147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09733872107569001</v>
+        <v>-0.1222381004525731</v>
       </c>
       <c r="C95">
-        <v>-0.07457682240500242</v>
+        <v>0.07463803590075949</v>
       </c>
       <c r="D95">
-        <v>0.07088378732639394</v>
+        <v>-0.01714160304047289</v>
       </c>
       <c r="E95">
-        <v>-0.04153908192644884</v>
+        <v>-0.06626323937292035</v>
       </c>
       <c r="F95">
-        <v>-0.06361690143665863</v>
+        <v>0.07950402581466154</v>
       </c>
       <c r="G95">
-        <v>-0.0007858104701429702</v>
+        <v>0.2206539666576901</v>
       </c>
       <c r="H95">
-        <v>0.004679304607554869</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.05816132080807899</v>
+      </c>
+      <c r="I95">
+        <v>0.05710639891104383</v>
+      </c>
+      <c r="J95">
+        <v>-0.1281345304799378</v>
+      </c>
+      <c r="K95">
+        <v>0.0650069141671151</v>
+      </c>
+      <c r="L95">
+        <v>0.09986813748649785</v>
+      </c>
+      <c r="M95">
+        <v>-0.5044528234858517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>7.507762673006365e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0009527606984774356</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0002805990757494839</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.00156372717646288</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0005499051164439124</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0001216890989003798</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0006190817282264973</v>
+      </c>
+      <c r="I96">
+        <v>0.001699674375516684</v>
+      </c>
+      <c r="J96">
+        <v>-0.001832293376496437</v>
+      </c>
+      <c r="K96">
+        <v>-0.001527198470496292</v>
+      </c>
+      <c r="L96">
+        <v>-0.003197972625198297</v>
+      </c>
+      <c r="M96">
+        <v>0.003651063529289119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2432984396429785</v>
+        <v>-0.1586746778057731</v>
       </c>
       <c r="C97">
-        <v>0.008530013370569599</v>
+        <v>-0.003876187682151214</v>
       </c>
       <c r="D97">
-        <v>-0.8862207138656187</v>
+        <v>-0.09746610899541287</v>
       </c>
       <c r="E97">
-        <v>0.1372524141802955</v>
+        <v>0.9292322110093686</v>
       </c>
       <c r="F97">
-        <v>-0.119906681188131</v>
+        <v>0.04478283041064501</v>
       </c>
       <c r="G97">
-        <v>0.03222055906763262</v>
+        <v>0.1145332609433675</v>
       </c>
       <c r="H97">
-        <v>0.007867635410020122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04895303981160547</v>
+      </c>
+      <c r="I97">
+        <v>0.06768091788840193</v>
+      </c>
+      <c r="J97">
+        <v>0.04405194341026255</v>
+      </c>
+      <c r="K97">
+        <v>0.007704092179906329</v>
+      </c>
+      <c r="L97">
+        <v>-0.01065348487737405</v>
+      </c>
+      <c r="M97">
+        <v>-0.02512954964745303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2938384064379759</v>
+        <v>-0.2655008734304173</v>
       </c>
       <c r="C98">
-        <v>-0.1157584954035946</v>
+        <v>0.1122958685683187</v>
       </c>
       <c r="D98">
-        <v>0.1527911598549413</v>
+        <v>-0.0008764200178625716</v>
       </c>
       <c r="E98">
-        <v>0.2531704837417545</v>
+        <v>-0.0006146589088194987</v>
       </c>
       <c r="F98">
-        <v>-0.466140715998783</v>
+        <v>-0.4528751593286298</v>
       </c>
       <c r="G98">
-        <v>-0.4019288392944296</v>
+        <v>0.1670133718154957</v>
       </c>
       <c r="H98">
-        <v>0.3308655384070777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.007570896506630321</v>
+      </c>
+      <c r="I98">
+        <v>-0.1884614978949268</v>
+      </c>
+      <c r="J98">
+        <v>0.09495146817085286</v>
+      </c>
+      <c r="K98">
+        <v>-0.577645674831424</v>
+      </c>
+      <c r="L98">
+        <v>0.3015698403975525</v>
+      </c>
+      <c r="M98">
+        <v>-0.07107843248647731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06463420038789128</v>
+        <v>-0.06798583816193082</v>
       </c>
       <c r="C99">
-        <v>-0.04586003491544448</v>
+        <v>0.05648311398393237</v>
       </c>
       <c r="D99">
-        <v>0.0431191894472028</v>
+        <v>-0.008353555851638795</v>
       </c>
       <c r="E99">
-        <v>-0.0009665374405204993</v>
+        <v>-0.03905039764139974</v>
       </c>
       <c r="F99">
-        <v>-0.01951923515801788</v>
+        <v>-0.01346077974167026</v>
       </c>
       <c r="G99">
-        <v>-0.004260017849617078</v>
+        <v>-0.01686568525082506</v>
       </c>
       <c r="H99">
-        <v>0.0812218732697907</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.004410133753082223</v>
+      </c>
+      <c r="I99">
+        <v>0.01202250417382485</v>
+      </c>
+      <c r="J99">
+        <v>0.05091050860184645</v>
+      </c>
+      <c r="K99">
+        <v>-0.0251896175922052</v>
+      </c>
+      <c r="L99">
+        <v>-0.04143984910436427</v>
+      </c>
+      <c r="M99">
+        <v>-0.1045927026075954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05270848916578107</v>
+        <v>-0.04240718280339412</v>
       </c>
       <c r="C101">
-        <v>-0.01930777907841743</v>
+        <v>0.02911392622537579</v>
       </c>
       <c r="D101">
-        <v>0.01271577465103308</v>
+        <v>0.003815051662539553</v>
       </c>
       <c r="E101">
-        <v>-0.02371905139428752</v>
+        <v>-0.02049275329639621</v>
       </c>
       <c r="F101">
-        <v>0.005903015254176559</v>
+        <v>0.05832246948531481</v>
       </c>
       <c r="G101">
-        <v>-0.01277702079301113</v>
+        <v>-0.02602735630816368</v>
       </c>
       <c r="H101">
-        <v>-0.006201586908660366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01713544983180024</v>
+      </c>
+      <c r="I101">
+        <v>-0.01371573184942536</v>
+      </c>
+      <c r="J101">
+        <v>-0.0561987684488042</v>
+      </c>
+      <c r="K101">
+        <v>-0.01786541017178311</v>
+      </c>
+      <c r="L101">
+        <v>0.04144237438073934</v>
+      </c>
+      <c r="M101">
+        <v>0.00843196111706997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
